--- a/weekly_online_paper_metrices/output/2022-12-05.xlsx
+++ b/weekly_online_paper_metrices/output/2022-12-05.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M76"/>
+  <dimension ref="A1:M77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -427,17 +427,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Autophagic Clearance of Lipid Droplets Alters Metabolic Phenotypes in a Genetic Obesity–Diabetes Mouse Model</t>
+          <t>Correction to: Increased Soluble Epoxide Hydrolase Activity Positively Correlates with Mortality in Heart Failure Patients with Preserved Ejection Fraction: Evidence from Metabolomics</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-022-00080-z</t>
+          <t>http://link.springer.com/article/10.1007/s43657-022-00088-5</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Correction</t>
         </is>
       </c>
       <c r="D2">
@@ -450,21 +450,21 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2022-11-19</t>
+          <t>2022-11-29</t>
         </is>
       </c>
       <c r="G2">
-        <v>191</v>
+        <v>19</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Boxun Lu, Yuhua Fu</t>
+          <t>Xu Zhang, Dao Wen Wang</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
@@ -481,12 +481,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>A Meta-Analysis of the Genome-Wide Association Studies on Two Genetically Correlated Phenotypes Suggests Four New Risk Loci for Headaches</t>
+          <t>Autophagic Clearance of Lipid Droplets Alters Metabolic Phenotypes in a Genetic Obesity–Diabetes Mouse Model</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-022-00078-7</t>
+          <t>http://link.springer.com/article/10.1007/s43657-022-00080-z</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -504,21 +504,21 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2022-11-18</t>
+          <t>2022-11-19</t>
         </is>
       </c>
       <c r="G3">
-        <v>264</v>
+        <v>191</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Weihua Meng</t>
+          <t>Boxun Lu, Yuhua Fu</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
@@ -535,12 +535,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Increased Soluble Epoxide Hydrolase Activity Positively Correlates with Mortality in Heart Failure Patients with Preserved Ejection Fraction: Evidence from Metabolomics</t>
+          <t>A Meta-Analysis of the Genome-Wide Association Studies on Two Genetically Correlated Phenotypes Suggests Four New Risk Loci for Headaches</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-022-00069-8</t>
+          <t>http://link.springer.com/article/10.1007/s43657-022-00078-7</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -553,26 +553,26 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2022-10</t>
+          <t>2022-11</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2022-10-27</t>
+          <t>2022-11-18</t>
         </is>
       </c>
       <c r="G4">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Chen Chen, Xu Zhang, Dao Wen Wang</t>
+          <t>Weihua Meng</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
@@ -589,12 +589,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Adjustment for the Age- and Gender-Related Metabolic Changes Improves the Differential Diagnosis of Parkinsonism</t>
+          <t>Increased Soluble Epoxide Hydrolase Activity Positively Correlates with Mortality in Heart Failure Patients with Preserved Ejection Fraction: Evidence from Metabolomics</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-022-00079-6</t>
+          <t>http://link.springer.com/article/10.1007/s43657-022-00069-8</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -612,11 +612,11 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2022-10-25</t>
+          <t>2022-10-27</t>
         </is>
       </c>
       <c r="G5">
-        <v>192</v>
+        <v>264</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -626,7 +626,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Fengtao Liu, Chuantao Zuo</t>
+          <t>Chen Chen, Xu Zhang, Dao Wen Wang</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
@@ -643,12 +643,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Dopaminergic Dysfunction and Glucose Metabolism Characteristics in Parkin-Induced Early-Onset Parkinson’s Disease Compared to Genetically Undetermined Early-Onset Parkinson’s Disease</t>
+          <t>Adjustment for the Age- and Gender-Related Metabolic Changes Improves the Differential Diagnosis of Parkinsonism</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-022-00077-8</t>
+          <t>http://link.springer.com/article/10.1007/s43657-022-00079-6</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -666,11 +666,11 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2022-10-22</t>
+          <t>2022-10-25</t>
         </is>
       </c>
       <c r="G6">
-        <v>259</v>
+        <v>195</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -680,7 +680,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Jian-Jun Wu, Chuan-Tao Zuo, Jian Wang</t>
+          <t>Fengtao Liu, Chuantao Zuo</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
@@ -697,17 +697,17 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Chinese Medicine Phenomics (Chinmedphenomics): Personalized, Precise and Promising</t>
+          <t>Dopaminergic Dysfunction and Glucose Metabolism Characteristics in Parkin-Induced Early-Onset Parkinson’s Disease Compared to Genetically Undetermined Early-Onset Parkinson’s Disease</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-022-00074-x</t>
+          <t>http://link.springer.com/article/10.1007/s43657-022-00077-8</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="D7">
@@ -720,11 +720,11 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2022-10-14</t>
+          <t>2022-10-22</t>
         </is>
       </c>
       <c r="G7">
-        <v>438</v>
+        <v>262</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -734,7 +734,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Dezhi Tang, Yongjun Wang</t>
+          <t>Jian-Jun Wu, Chuan-Tao Zuo, Jian Wang</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
@@ -751,12 +751,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Skin Microbiome, Metabolome and Skin Phenome, from the Perspectives of Skin as an Ecosystem</t>
+          <t>Chinese Medicine Phenomics (Chinmedphenomics): Personalized, Precise and Promising</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-022-00073-y</t>
+          <t>http://link.springer.com/article/10.1007/s43657-022-00074-x</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -774,26 +774,31 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2022-10-10</t>
+          <t>2022-10-14</t>
         </is>
       </c>
       <c r="G8">
-        <v>1223</v>
+        <v>446</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Jiucun Wang, Jingjing Xia</t>
+          <t>Dezhi Tang, Yongjun Wang</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>2</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>6</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
@@ -805,17 +810,17 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Influence of Gender on Tau Precipitation in Alzheimer’s Disease According to ATN Research Framework</t>
+          <t>Skin Microbiome, Metabolome and Skin Phenome, from the Perspectives of Skin as an Ecosystem</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-022-00076-9</t>
+          <t>http://link.springer.com/article/10.1007/s43657-022-00073-y</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="D9">
@@ -832,22 +837,27 @@
         </is>
       </c>
       <c r="G9">
-        <v>303</v>
+        <v>1223</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Chuantao Zuo, Jiehui Jiang</t>
+          <t>Jiucun Wang, Jingjing Xia</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>2</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>6</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
@@ -859,12 +869,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Causal Association of Cardiac Function by Magnetic Resonance Imaging with Frailty Index: A Mendelian Randomization Study</t>
+          <t>Influence of Gender on Tau Precipitation in Alzheimer’s Disease According to ATN Research Framework</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-022-00072-z</t>
+          <t>http://link.springer.com/article/10.1007/s43657-022-00076-9</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -877,16 +887,16 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2022-09</t>
+          <t>2022-10</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2022-09-29</t>
+          <t>2022-10-10</t>
         </is>
       </c>
       <c r="G10">
-        <v>361</v>
+        <v>307</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -896,7 +906,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Xuehui Sun, Xiaofeng Wang</t>
+          <t>Chuantao Zuo, Jiehui Jiang</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
@@ -913,12 +923,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Large-Scale Proteomics Data Reveal Integrated Prognosis-Related Protein Signatures and Role of SMAD4 and RAD50 in Prognosis and Immune Infiltrations of Prostate Cancer Microenvironment</t>
+          <t>Causal Association of Cardiac Function by Magnetic Resonance Imaging with Frailty Index: A Mendelian Randomization Study</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-022-00070-1</t>
+          <t>http://link.springer.com/article/10.1007/s43657-022-00072-z</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -936,11 +946,11 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2022-09-27</t>
+          <t>2022-09-29</t>
         </is>
       </c>
       <c r="G11">
-        <v>312</v>
+        <v>361</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -950,12 +960,17 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Yuan-Yuan Qu, Hai-Liang Zhang, Ding-Wei Ye</t>
+          <t>Xuehui Sun, Xiaofeng Wang</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>2</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>6</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
@@ -967,17 +982,17 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>High-Resolution and Multidimensional Phenotypes Can Complement Genomics Data to Diagnose Diseases in the Neonatal Population</t>
+          <t>Large-Scale Proteomics Data Reveal Integrated Prognosis-Related Protein Signatures and Role of SMAD4 and RAD50 in Prognosis and Immune Infiltrations of Prostate Cancer Microenvironment</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-022-00071-0</t>
+          <t>http://link.springer.com/article/10.1007/s43657-022-00070-1</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="D12">
@@ -990,26 +1005,31 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2022-09-09</t>
+          <t>2022-09-27</t>
         </is>
       </c>
       <c r="G12">
-        <v>452</v>
+        <v>318</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Wenhao Zhou</t>
+          <t>Yuan-Yuan Qu, Hai-Liang Zhang, Ding-Wei Ye</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>2</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>6</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
@@ -1021,17 +1041,17 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>International Nuclear Medicine Consensus on the Clinical Use of Amyloid Positron Emission Tomography in Alzheimer’s Disease</t>
+          <t>High-Resolution and Multidimensional Phenotypes Can Complement Genomics Data to Diagnose Diseases in the Neonatal Population</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-022-00068-9</t>
+          <t>http://link.springer.com/article/10.1007/s43657-022-00071-0</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="D13">
@@ -1039,16 +1059,16 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2022-08</t>
+          <t>2022-09</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2022-08-26</t>
+          <t>2022-09-09</t>
         </is>
       </c>
       <c r="G13">
-        <v>592</v>
+        <v>455</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1058,7 +1078,7 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Mei Tian, Chuantao Zuo, Hong Zhang</t>
+          <t>Wenhao Zhou</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
@@ -1075,12 +1095,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Low Concordance Between Blood Pressures Measured in Periodic Health Examinations and in a Workplace-Based Hypertension Management Program</t>
+          <t>International Nuclear Medicine Consensus on the Clinical Use of Amyloid Positron Emission Tomography in Alzheimer’s Disease</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-022-00067-w</t>
+          <t>http://link.springer.com/article/10.1007/s43657-022-00068-9</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1098,21 +1118,21 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2022-08-18</t>
+          <t>2022-08-26</t>
         </is>
       </c>
       <c r="G14">
-        <v>498</v>
+        <v>592</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Shouling Wu, An Pan</t>
+          <t>Mei Tian, Chuantao Zuo, Hong Zhang</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
@@ -1129,12 +1149,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Cross-sectional Exploration of the Relationship Between Glutamate Abnormalities and Tic Disorder Severity Using Proton Magnetic Resonance Spectroscopy</t>
+          <t>Low Concordance Between Blood Pressures Measured in Periodic Health Examinations and in a Workplace-Based Hypertension Management Program</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-022-00064-z</t>
+          <t>http://link.springer.com/article/10.1007/s43657-022-00067-w</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1152,26 +1172,31 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2022-08-16</t>
+          <t>2022-08-18</t>
         </is>
       </c>
       <c r="G15">
-        <v>434</v>
+        <v>506</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Xiao-Yong Zhang, Min Wu</t>
+          <t>Shouling Wu, An Pan</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>2</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>6</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
@@ -1183,12 +1208,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Human Genetic Variants Associated with COVID-19 Severity are Enriched in Immune and Epithelium Regulatory Networks</t>
+          <t>Cross-sectional Exploration of the Relationship Between Glutamate Abnormalities and Tic Disorder Severity Using Proton Magnetic Resonance Spectroscopy</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-022-00066-x</t>
+          <t>http://link.springer.com/article/10.1007/s43657-022-00064-z</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1206,11 +1231,11 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2022-08-13</t>
+          <t>2022-08-16</t>
         </is>
       </c>
       <c r="G16">
-        <v>756</v>
+        <v>437</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1220,7 +1245,7 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Yong Wang</t>
+          <t>Xiao-Yong Zhang, Min Wu</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
@@ -1237,17 +1262,17 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Report on the 3rd Board Meeting of the International Human Phenome Consortium</t>
+          <t>Human Genetic Variants Associated with COVID-19 Severity are Enriched in Immune and Epithelium Regulatory Networks</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-022-00065-y</t>
+          <t>http://link.springer.com/article/10.1007/s43657-022-00066-x</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Meeting Report</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="D17">
@@ -1255,31 +1280,36 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2022-06</t>
+          <t>2022-08</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2022-06-22</t>
+          <t>2022-08-13</t>
         </is>
       </c>
       <c r="G17">
-        <v>1158</v>
+        <v>764</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Mei Tian, Li Jin</t>
+          <t>Yong Wang</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>2</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>6</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
@@ -1291,17 +1321,17 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Palmprint Phenotype Feature Extraction and Classification Based on Deep Learning</t>
+          <t>Report on the 3rd Board Meeting of the International Human Phenome Consortium</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-022-00063-0</t>
+          <t>http://link.springer.com/article/10.1007/s43657-022-00065-y</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Meeting Report</t>
         </is>
       </c>
       <c r="D18">
@@ -1318,7 +1348,7 @@
         </is>
       </c>
       <c r="G18">
-        <v>635</v>
+        <v>1164</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1328,17 +1358,12 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Sijia Wang, Guangtao Zhai</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>2</t>
+          <t>Mei Tian, Li Jin</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>4</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
@@ -1350,17 +1375,17 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Mitochondria as the Essence of Yang Qi in the Human Body</t>
+          <t>Palmprint Phenotype Feature Extraction and Classification Based on Deep Learning</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-022-00060-3</t>
+          <t>http://link.springer.com/article/10.1007/s43657-022-00063-0</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="D19">
@@ -1373,11 +1398,11 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2022-06-16</t>
+          <t>2022-06-22</t>
         </is>
       </c>
       <c r="G19">
-        <v>1269</v>
+        <v>638</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1387,7 +1412,7 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Junjie Luo, Zhenglong Gu</t>
+          <t>Sijia Wang, Guangtao Zhai</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -1397,7 +1422,7 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
@@ -1409,17 +1434,17 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Multi-omics Analysis of Young Portulaca oleracea L. Plants’ Responses to High NaCl Doses Reveals Insights into Pathways and Genes Responsive to Salinity Stress in this Halophyte Species</t>
+          <t>Mitochondria as the Essence of Yang Qi in the Human Body</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-022-00061-2</t>
+          <t>http://link.springer.com/article/10.1007/s43657-022-00060-3</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="D20">
@@ -1432,11 +1457,11 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2022-06-15</t>
+          <t>2022-06-16</t>
         </is>
       </c>
       <c r="G20">
-        <v>734</v>
+        <v>1274</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1446,12 +1471,17 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Manoel Teixeira Souza Júnior</t>
+          <t>Junjie Luo, Zhenglong Gu</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>2</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>5</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
@@ -1463,12 +1493,12 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Plasma Lipidomic Subclasses and Risk of Hypertension in Middle-Aged and Elderly Chinese</t>
+          <t>Multi-omics Analysis of Young Portulaca oleracea L. Plants’ Responses to High NaCl Doses Reveals Insights into Pathways and Genes Responsive to Salinity Stress in this Halophyte Species</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-022-00057-y</t>
+          <t>http://link.springer.com/article/10.1007/s43657-022-00061-2</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1486,11 +1516,11 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2022-06-14</t>
+          <t>2022-06-15</t>
         </is>
       </c>
       <c r="G21">
-        <v>790</v>
+        <v>740</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1500,17 +1530,12 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Rong Zeng, Liang Sun, Xu Lin</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>2</t>
+          <t>Manoel Teixeira Souza Júnior</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>5</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
@@ -1522,12 +1547,12 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Identification of Germline Mutations in East-Asian Young Never-Smokers with Lung Adenocarcinoma by Whole-Exome Sequencing</t>
+          <t>Plasma Lipidomic Subclasses and Risk of Hypertension in Middle-Aged and Elderly Chinese</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-022-00062-1</t>
+          <t>http://link.springer.com/article/10.1007/s43657-022-00057-y</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1545,26 +1570,31 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2022-06-11</t>
+          <t>2022-06-14</t>
         </is>
       </c>
       <c r="G22">
-        <v>848</v>
+        <v>794</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22">
         <v>1</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Libing Shen, Yihua Sun, Yang Zhang</t>
+          <t>Rong Zeng, Liang Sun, Xu Lin</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>2</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>5</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
@@ -1576,12 +1606,12 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Clinical Profiles at the Time of Diagnosis of SARS-CoV-2 Infection in Costa Rica During the Pre-vaccination Period Using a Machine Learning Approach</t>
+          <t>Identification of Germline Mutations in East-Asian Young Never-Smokers with Lung Adenocarcinoma by Whole-Exome Sequencing</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-022-00058-x</t>
+          <t>http://link.springer.com/article/10.1007/s43657-022-00062-1</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1599,31 +1629,26 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2022-06-07</t>
+          <t>2022-06-11</t>
         </is>
       </c>
       <c r="G23">
-        <v>823</v>
+        <v>852</v>
       </c>
       <c r="H23">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I23">
         <v>1</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Jose Arturo Molina-Mora</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>2</t>
+          <t>Libing Shen, Yihua Sun, Yang Zhang</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>5</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
@@ -1635,12 +1660,12 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Metabolic Molecular Diagnosis of Inflammatory Bowel Disease by Synergistical Promotion of Layered Titania Nanosheets with Graphitized Carbon</t>
+          <t>Clinical Profiles at the Time of Diagnosis of SARS-CoV-2 Infection in Costa Rica During the Pre-vaccination Period Using a Machine Learning Approach</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-022-00055-0</t>
+          <t>http://link.springer.com/article/10.1007/s43657-022-00058-x</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1658,21 +1683,21 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2022-06-01</t>
+          <t>2022-06-07</t>
         </is>
       </c>
       <c r="G24">
-        <v>591</v>
+        <v>828</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I24">
         <v>1</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Chunhui Deng, Nianrong Sun, Hao Wu</t>
+          <t>Jose Arturo Molina-Mora</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -1682,7 +1707,7 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
@@ -1694,17 +1719,17 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Emerging Regulatory Mechanisms of N6-Methyladenosine Modification in Cancer Metastasis</t>
+          <t>Metabolic Molecular Diagnosis of Inflammatory Bowel Disease by Synergistical Promotion of Layered Titania Nanosheets with Graphitized Carbon</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-021-00043-w</t>
+          <t>http://link.springer.com/article/10.1007/s43657-022-00055-0</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="D25">
@@ -1712,31 +1737,36 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2022-05</t>
+          <t>2022-06</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2022-05-25</t>
+          <t>2022-06-01</t>
         </is>
       </c>
       <c r="G25">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25">
         <v>1</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Lunxiu Qin</t>
+          <t>Chunhui Deng, Nianrong Sun, Hao Wu</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>2</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>4</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
@@ -1748,12 +1778,12 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Deep Clinical Phenotyping of Parkinson’s Disease: Towards a New Era of Research and Clinical Care</t>
+          <t>Emerging Regulatory Mechanisms of N6-Methyladenosine Modification in Cancer Metastasis</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-022-00051-4</t>
+          <t>http://link.springer.com/article/10.1007/s43657-021-00043-w</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1771,31 +1801,26 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2022-05-21</t>
+          <t>2022-05-25</t>
         </is>
       </c>
       <c r="G26">
-        <v>742</v>
+        <v>797</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26">
         <v>1</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Jian Wang</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>2</t>
+          <t>Lunxiu Qin</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>5</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
@@ -1807,17 +1832,17 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A Hashing-Based Framework for Enhancing Cluster Delineation of High-Dimensional Single-Cell Profiles</t>
+          <t>Deep Clinical Phenotyping of Parkinson’s Disease: Towards a New Era of Research and Clinical Care</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-022-00056-z</t>
+          <t>http://link.springer.com/article/10.1007/s43657-022-00051-4</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="D27">
@@ -1830,11 +1855,11 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2022-05-19</t>
+          <t>2022-05-21</t>
         </is>
       </c>
       <c r="G27">
-        <v>639</v>
+        <v>745</v>
       </c>
       <c r="H27">
         <v>0</v>
@@ -1844,7 +1869,7 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Xianting Ding</t>
+          <t>Jian Wang</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -1866,12 +1891,12 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Nascent Proteome and Glycoproteome Reveal the Inhibition Role of ALG1 in Hepatocellular Carcinoma Cell Migration</t>
+          <t>A Hashing-Based Framework for Enhancing Cluster Delineation of High-Dimensional Single-Cell Profiles</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-022-00050-5</t>
+          <t>http://link.springer.com/article/10.1007/s43657-022-00056-z</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1889,21 +1914,21 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2022-05-14</t>
+          <t>2022-05-19</t>
         </is>
       </c>
       <c r="G28">
-        <v>748</v>
+        <v>642</v>
       </c>
       <c r="H28">
         <v>0</v>
       </c>
       <c r="I28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Hong Shu, Haojie Lu</t>
+          <t>Xianting Ding</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -1913,7 +1938,7 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
@@ -1925,12 +1950,12 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Biomarkers and Disease Trajectories Influencing Women’s Health: Results from the UK Biobank Cohort</t>
+          <t>Nascent Proteome and Glycoproteome Reveal the Inhibition Role of ALG1 in Hepatocellular Carcinoma Cell Migration</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-022-00054-1</t>
+          <t>http://link.springer.com/article/10.1007/s43657-022-00050-5</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1948,21 +1973,21 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2022-05-12</t>
+          <t>2022-05-14</t>
         </is>
       </c>
       <c r="G29">
-        <v>1439</v>
+        <v>751</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Haomin Yang, Weimin Ye</t>
+          <t>Hong Shu, Haojie Lu</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -1972,7 +1997,7 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
@@ -1984,12 +2009,12 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Causal Effect of Genetically Determined Blood Copper Concentrations on Multiple Diseases: A Mendelian Randomization and Phenome-Wide Association Study</t>
+          <t>Biomarkers and Disease Trajectories Influencing Women’s Health: Results from the UK Biobank Cohort</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-022-00052-3</t>
+          <t>http://link.springer.com/article/10.1007/s43657-022-00054-1</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -2007,21 +2032,21 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2022-05-07</t>
+          <t>2022-05-12</t>
         </is>
       </c>
       <c r="G30">
-        <v>750</v>
+        <v>1439</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Longman Li, Xiaobo Yang</t>
+          <t>Haomin Yang, Weimin Ye</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -2031,7 +2056,7 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
@@ -2043,12 +2068,12 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Three Novel Mutations of Microphthalmos Identified in Two Chinese Families</t>
+          <t>Causal Effect of Genetically Determined Blood Copper Concentrations on Multiple Diseases: A Mendelian Randomization and Phenome-Wide Association Study</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-022-00053-2</t>
+          <t>http://link.springer.com/article/10.1007/s43657-022-00052-3</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -2070,7 +2095,7 @@
         </is>
       </c>
       <c r="G31">
-        <v>485</v>
+        <v>754</v>
       </c>
       <c r="H31">
         <v>0</v>
@@ -2080,7 +2105,7 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Yi Lu, Tianyu Zheng</t>
+          <t>Longman Li, Xiaobo Yang</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -2102,17 +2127,17 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Correction to: Welcome to the Phenomics Journal</t>
+          <t>Three Novel Mutations of Microphthalmos Identified in Two Chinese Families</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-022-00059-w</t>
+          <t>http://link.springer.com/article/10.1007/s43657-022-00053-2</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Correction</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="D32">
@@ -2125,11 +2150,11 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2022-05-06</t>
+          <t>2022-05-07</t>
         </is>
       </c>
       <c r="G32">
-        <v>222</v>
+        <v>488</v>
       </c>
       <c r="H32">
         <v>0</v>
@@ -2139,12 +2164,17 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>Li Jin</t>
+          <t>Yi Lu, Tianyu Zheng</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>2</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>4</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
@@ -2156,17 +2186,17 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A Comprehensive Review of High Throughput Phenotyping and Machine Learning for Plant Stress Phenotyping</t>
+          <t>Correction to: Welcome to the Phenomics Journal</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-022-00048-z</t>
+          <t>http://link.springer.com/article/10.1007/s43657-022-00059-w</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Correction</t>
         </is>
       </c>
       <c r="D33">
@@ -2174,36 +2204,31 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>2022-04</t>
+          <t>2022-05</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2022-04-04</t>
+          <t>2022-05-06</t>
         </is>
       </c>
       <c r="G33">
-        <v>2754</v>
+        <v>225</v>
       </c>
       <c r="H33">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I33">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Karansher S. Sandhu</t>
-        </is>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>2</t>
+          <t>Li Jin</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>3</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
@@ -2215,17 +2240,17 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Global Quantitative Proteomics Analysis Reveals the Downstream Signaling Networks of Msx1 and Msx2 in Myoblast Differentiation</t>
+          <t>A Comprehensive Review of High Throughput Phenotyping and Machine Learning for Plant Stress Phenotyping</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-022-00049-y</t>
+          <t>http://link.springer.com/article/10.1007/s43657-022-00048-z</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="D34">
@@ -2233,26 +2258,26 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>2022-03</t>
+          <t>2022-04</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>2022-03-14</t>
+          <t>2022-04-04</t>
         </is>
       </c>
       <c r="G34">
-        <v>564</v>
+        <v>2774</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I34">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>Yenan Yang</t>
+          <t>Karansher S. Sandhu</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
@@ -2274,12 +2299,12 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Basic Phenotyping of Male Fertility from 2019 to 2020 at the Human Sperm Bank of Fudan University</t>
+          <t>Global Quantitative Proteomics Analysis Reveals the Downstream Signaling Networks of Msx1 and Msx2 in Myoblast Differentiation</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-022-00047-0</t>
+          <t>http://link.springer.com/article/10.1007/s43657-022-00049-y</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2292,16 +2317,16 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>2022-02</t>
+          <t>2022-03</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2022-02-28</t>
+          <t>2022-03-14</t>
         </is>
       </c>
       <c r="G35">
-        <v>511</v>
+        <v>567</v>
       </c>
       <c r="H35">
         <v>0</v>
@@ -2311,7 +2336,7 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Feng Jiang</t>
+          <t>Yenan Yang</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
@@ -2333,12 +2358,12 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A Preliminary Study on the Evaluation of Human Sperm Head Morphology with a Domestic Digital Holographic Image System</t>
+          <t>Basic Phenotyping of Male Fertility from 2019 to 2020 at the Human Sperm Bank of Fudan University</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-022-00046-1</t>
+          <t>http://link.springer.com/article/10.1007/s43657-022-00047-0</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2356,17 +2381,17 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2022-02-26</t>
+          <t>2022-02-28</t>
         </is>
       </c>
       <c r="G36">
-        <v>608</v>
+        <v>515</v>
       </c>
       <c r="H36">
         <v>0</v>
       </c>
       <c r="I36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
@@ -2380,7 +2405,7 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
@@ -2392,17 +2417,17 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Positron Emission Tomography Molecular Imaging for Phenotyping and Management of Lymphoma</t>
+          <t>A Preliminary Study on the Evaluation of Human Sperm Head Morphology with a Domestic Digital Holographic Image System</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-021-00042-x</t>
+          <t>http://link.springer.com/article/10.1007/s43657-022-00046-1</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="D37">
@@ -2415,21 +2440,21 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>2022-02-24</t>
+          <t>2022-02-26</t>
         </is>
       </c>
       <c r="G37">
-        <v>949</v>
+        <v>611</v>
       </c>
       <c r="H37">
         <v>0</v>
       </c>
       <c r="I37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Hong Zhang, Ali Cahid Civelek, Mei Tian</t>
+          <t>Feng Jiang</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
@@ -2451,17 +2476,17 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Immunosuppression Induced by Brain-Specific HDAC6 Knockdown Improves Aging Performance in Drosophila melanogaster</t>
+          <t>Positron Emission Tomography Molecular Imaging for Phenotyping and Management of Lymphoma</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-022-00045-2</t>
+          <t>http://link.springer.com/article/10.1007/s43657-021-00042-x</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="D38">
@@ -2474,11 +2499,11 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>2022-02-23</t>
+          <t>2022-02-24</t>
         </is>
       </c>
       <c r="G38">
-        <v>827</v>
+        <v>952</v>
       </c>
       <c r="H38">
         <v>0</v>
@@ -2488,7 +2513,7 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Jing-Dong J. Han, Wei Yu</t>
+          <t>Hong Zhang, Ali Cahid Civelek, Mei Tian</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
@@ -2498,7 +2523,7 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
@@ -2510,17 +2535,17 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Recent Advances in Understanding of Alzheimer’s Disease Progression Through Mass Spectrometry-Based Metabolomics</t>
+          <t>Immunosuppression Induced by Brain-Specific HDAC6 Knockdown Improves Aging Performance in Drosophila melanogaster</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-021-00036-9</t>
+          <t>http://link.springer.com/article/10.1007/s43657-022-00045-2</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="D39">
@@ -2533,21 +2558,21 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>2022-02-22</t>
+          <t>2022-02-23</t>
         </is>
       </c>
       <c r="G39">
-        <v>1555</v>
+        <v>831</v>
       </c>
       <c r="H39">
         <v>0</v>
       </c>
       <c r="I39">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Lingjun Li</t>
+          <t>Jing-Dong J. Han, Wei Yu</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
@@ -2557,7 +2582,7 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
@@ -2569,17 +2594,17 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Preoperative Characteristics of Ocular Biometry in Children with Unilateral Congenital Cataracts</t>
+          <t>Recent Advances in Understanding of Alzheimer’s Disease Progression Through Mass Spectrometry-Based Metabolomics</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-021-00040-z</t>
+          <t>http://link.springer.com/article/10.1007/s43657-021-00036-9</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="D40">
@@ -2596,17 +2621,17 @@
         </is>
       </c>
       <c r="G40">
-        <v>404</v>
+        <v>1561</v>
       </c>
       <c r="H40">
         <v>0</v>
       </c>
       <c r="I40">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>Yi Lu</t>
+          <t>Lingjun Li</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
@@ -2616,7 +2641,7 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
@@ -2628,12 +2653,12 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Unraveling the Dynamic Integration of Auxin, Brassinosteroid and Gibberellin in Early Shade-Induced Hypocotyl Elongation</t>
+          <t>Preoperative Characteristics of Ocular Biometry in Children with Unilateral Congenital Cataracts</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-022-00044-3</t>
+          <t>http://link.springer.com/article/10.1007/s43657-021-00040-z</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2651,21 +2676,21 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>2022-02-13</t>
+          <t>2022-02-22</t>
         </is>
       </c>
       <c r="G41">
-        <v>760</v>
+        <v>408</v>
       </c>
       <c r="H41">
         <v>0</v>
       </c>
       <c r="I41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Lin Li</t>
+          <t>Yi Lu</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
@@ -2687,12 +2712,12 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Diurnal Circadian Lighting Accumulation Model: A Predictor of the Human Circadian Phase Shift Phenotype</t>
+          <t>Unraveling the Dynamic Integration of Auxin, Brassinosteroid and Gibberellin in Early Shade-Induced Hypocotyl Elongation</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-021-00039-6</t>
+          <t>http://link.springer.com/article/10.1007/s43657-022-00044-3</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2710,21 +2735,21 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>2022-02-11</t>
+          <t>2022-02-13</t>
         </is>
       </c>
       <c r="G42">
-        <v>1011</v>
+        <v>763</v>
       </c>
       <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
         <v>1</v>
       </c>
-      <c r="I42">
-        <v>0</v>
-      </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Yandan Lin</t>
+          <t>Lin Li</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
@@ -2734,7 +2759,7 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
@@ -2746,17 +2771,17 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Optical Imaging of Epigenetic Modifications in Cancer: A Systematic Review</t>
+          <t>Diurnal Circadian Lighting Accumulation Model: A Predictor of the Human Circadian Phase Shift Phenotype</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-021-00041-y</t>
+          <t>http://link.springer.com/article/10.1007/s43657-021-00039-6</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="D43">
@@ -2769,11 +2794,11 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>2022-02-07</t>
+          <t>2022-02-11</t>
         </is>
       </c>
       <c r="G43">
-        <v>1223</v>
+        <v>1014</v>
       </c>
       <c r="H43">
         <v>1</v>
@@ -2783,7 +2808,7 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Yang Du, Jie Tian</t>
+          <t>Yandan Lin</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
@@ -2793,7 +2818,7 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
@@ -2805,17 +2830,17 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Seasonality and Sex-Biased Fluctuation of Birth Weight in Tibetan Populations</t>
+          <t>Optical Imaging of Epigenetic Modifications in Cancer: A Systematic Review</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-021-00038-7</t>
+          <t>http://link.springer.com/article/10.1007/s43657-021-00041-y</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="D44">
@@ -2823,26 +2848,26 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>2022-01</t>
+          <t>2022-02</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>2022-01-31</t>
+          <t>2022-02-07</t>
         </is>
       </c>
       <c r="G44">
-        <v>606</v>
+        <v>1228</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I44">
         <v>0</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Ouzhuluobu, Xuebin Qi, Bing Su</t>
+          <t>Yang Du, Jie Tian</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
@@ -2852,7 +2877,7 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
@@ -2864,17 +2889,17 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Why Do We Care More About Disease than Health?</t>
+          <t>Seasonality and Sex-Biased Fluctuation of Birth Weight in Tibetan Populations</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-021-00037-8</t>
+          <t>http://link.springer.com/article/10.1007/s43657-021-00038-7</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Commentary</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="D45">
@@ -2887,21 +2912,21 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>2022-01-28</t>
+          <t>2022-01-31</t>
         </is>
       </c>
       <c r="G45">
-        <v>2013</v>
+        <v>609</v>
       </c>
       <c r="H45">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I45">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Martin Picard</t>
+          <t xml:space="preserve"> Ouzhuluobu, Xuebin Qi, Bing Su</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
@@ -2911,7 +2936,7 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
@@ -2923,17 +2948,17 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Recent Progresses in Electrochemical DNA Biosensors for MicroRNA Detection</t>
+          <t>Why Do We Care More About Disease than Health?</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-021-00032-z</t>
+          <t>http://link.springer.com/article/10.1007/s43657-021-00037-8</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Commentary</t>
         </is>
       </c>
       <c r="D46">
@@ -2946,21 +2971,21 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>2022-01-21</t>
+          <t>2022-01-28</t>
         </is>
       </c>
       <c r="G46">
-        <v>1297</v>
+        <v>2016</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I46">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Xianting Ding</t>
+          <t>Martin Picard</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
@@ -2970,7 +2995,7 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
@@ -2982,17 +3007,17 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Pan-cancer analysis identifies RNA helicase DDX1 as a prognostic marker</t>
+          <t>Recent Progresses in Electrochemical DNA Biosensors for MicroRNA Detection</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-021-00034-x</t>
+          <t>http://link.springer.com/article/10.1007/s43657-021-00032-z</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="D47">
@@ -3005,21 +3030,21 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>2022-01-19</t>
+          <t>2022-01-21</t>
         </is>
       </c>
       <c r="G47">
-        <v>1026</v>
+        <v>1302</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47">
         <v>0</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>Jixi Li</t>
+          <t>Xianting Ding</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
@@ -3041,17 +3066,17 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Correction to: N-Glycoproteomics Study of Putative N-Glycoprotein Biomarkers of Drug Resistance in MCF-7/ADR Cells657</t>
+          <t>Pan-cancer analysis identifies RNA helicase DDX1 as a prognostic marker</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-021-00035-w</t>
+          <t>http://link.springer.com/article/10.1007/s43657-021-00034-x</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Correction</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="D48">
@@ -3064,11 +3089,11 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>2022-01-17</t>
+          <t>2022-01-19</t>
         </is>
       </c>
       <c r="G48">
-        <v>265</v>
+        <v>1029</v>
       </c>
       <c r="H48">
         <v>0</v>
@@ -3078,12 +3103,17 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Yun Chen, Zhixin Tian</t>
+          <t>Jixi Li</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>2</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>1</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
@@ -3095,17 +3125,17 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Phenome-Wide Association Analysis Reveals Novel Links Between Genetically Determined Levels of Liver Enzymes and Disease Phenotypes</t>
+          <t>Correction to: N-Glycoproteomics Study of Putative N-Glycoprotein Biomarkers of Drug Resistance in MCF-7/ADR Cells657</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-021-00033-y</t>
+          <t>http://link.springer.com/article/10.1007/s43657-021-00035-w</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Correction</t>
         </is>
       </c>
       <c r="D49">
@@ -3118,11 +3148,11 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>2022-01-11</t>
+          <t>2022-01-17</t>
         </is>
       </c>
       <c r="G49">
-        <v>1210</v>
+        <v>265</v>
       </c>
       <c r="H49">
         <v>0</v>
@@ -3132,17 +3162,12 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Xingdong Chen</t>
-        </is>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>2</t>
+          <t>Yun Chen, Zhixin Tian</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>5</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
@@ -3154,17 +3179,17 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Mapping Cell Phenomics with Multiparametric Flow Cytometry Assays</t>
+          <t>Phenome-Wide Association Analysis Reveals Novel Links Between Genetically Determined Levels of Liver Enzymes and Disease Phenotypes</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-021-00031-0</t>
+          <t>http://link.springer.com/article/10.1007/s43657-021-00033-y</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="D50">
@@ -3177,11 +3202,11 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>2022-01-09</t>
+          <t>2022-01-11</t>
         </is>
       </c>
       <c r="G50">
-        <v>1931</v>
+        <v>1214</v>
       </c>
       <c r="H50">
         <v>0</v>
@@ -3191,7 +3216,7 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>Shan Jiang, Jing Wang, Ying Wan</t>
+          <t>Xingdong Chen</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
@@ -3201,7 +3226,7 @@
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
@@ -3213,12 +3238,12 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Beyond Mendelian Inheritance: Genetic Buffering and Phenotype Variability</t>
+          <t>Mapping Cell Phenomics with Multiparametric Flow Cytometry Assays</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-021-00030-1</t>
+          <t>http://link.springer.com/article/10.1007/s43657-021-00031-0</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -3227,30 +3252,30 @@
         </is>
       </c>
       <c r="D51">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>2021-12</t>
+          <t>2022-01</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>2021-12-27</t>
+          <t>2022-01-09</t>
         </is>
       </c>
       <c r="G51">
-        <v>1683</v>
+        <v>1931</v>
       </c>
       <c r="H51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51">
         <v>0</v>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Andrea Rossi, Zacharias Kontarakis</t>
+          <t>Shan Jiang, Jing Wang, Ying Wan</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
@@ -3260,7 +3285,7 @@
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="M51" t="inlineStr">
@@ -3272,17 +3297,17 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>CYP2C9*3 Increases the Ibuprofen Response of Hemodynamically Significant Patent Ductus Arteriosus in the Infants with Gestational Age of More Than 30 Weeks</t>
+          <t>Beyond Mendelian Inheritance: Genetic Buffering and Phenotype Variability</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-021-00028-9</t>
+          <t>http://link.springer.com/article/10.1007/s43657-021-00030-1</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Correspondence</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="D52">
@@ -3290,26 +3315,26 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>2021-11</t>
+          <t>2021-12</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>2021-11-11</t>
+          <t>2021-12-27</t>
         </is>
       </c>
       <c r="G52">
-        <v>723</v>
+        <v>1683</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I52">
         <v>0</v>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>Wenhao Zhou</t>
+          <t>Andrea Rossi, Zacharias Kontarakis</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
@@ -3319,7 +3344,7 @@
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="M52" t="inlineStr">
@@ -3331,17 +3356,17 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Mental Calculation Drives Reliable and Weak Distant Connectivity While Music Listening Induces Dense Local Connectivity</t>
+          <t>CYP2C9*3 Increases the Ibuprofen Response of Hemodynamically Significant Patent Ductus Arteriosus in the Infants with Gestational Age of More Than 30 Weeks</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-021-00027-w</t>
+          <t>http://link.springer.com/article/10.1007/s43657-021-00028-9</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Correspondence</t>
         </is>
       </c>
       <c r="D53">
@@ -3354,31 +3379,31 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>2021-11-10</t>
+          <t>2021-11-11</t>
         </is>
       </c>
       <c r="G53">
-        <v>1214</v>
+        <v>727</v>
       </c>
       <c r="H53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53">
         <v>0</v>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>Yuguo Yu</t>
+          <t>Wenhao Zhou</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
         <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
           <t>1</t>
-        </is>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>6</t>
         </is>
       </c>
       <c r="M53" t="inlineStr">
@@ -3390,12 +3415,12 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Systematic Genome-Wide Profiles Reveal Alternative Splicing Landscape and Implications of Splicing Regulator DExD-Box Helicase 21 in Aggressive Progression of Adrenocortical Carcinoma</t>
+          <t>Mental Calculation Drives Reliable and Weak Distant Connectivity While Music Listening Induces Dense Local Connectivity</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-021-00026-x</t>
+          <t>http://link.springer.com/article/10.1007/s43657-021-00027-w</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -3408,26 +3433,26 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>2021-10</t>
+          <t>2021-11</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>2021-10-29</t>
+          <t>2021-11-10</t>
         </is>
       </c>
       <c r="G54">
-        <v>1256</v>
+        <v>1218</v>
       </c>
       <c r="H54">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I54">
         <v>0</v>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>Yuanyuan Qu, Hailiang Zhang, Dingwei Ye</t>
+          <t>Yuguo Yu</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
@@ -3449,12 +3474,12 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>N-Glycoproteomics Study of Putative N-Glycoprotein Biomarkers of Drug Resistance in MCF-7/ADR Cells</t>
+          <t>Systematic Genome-Wide Profiles Reveal Alternative Splicing Landscape and Implications of Splicing Regulator DExD-Box Helicase 21 in Aggressive Progression of Adrenocortical Carcinoma</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-021-00029-8</t>
+          <t>http://link.springer.com/article/10.1007/s43657-021-00026-x</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -3472,21 +3497,21 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>2021-10-28</t>
+          <t>2021-10-29</t>
         </is>
       </c>
       <c r="G55">
-        <v>1202</v>
+        <v>1258</v>
       </c>
       <c r="H55">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I55">
         <v>0</v>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>Yun Chen, Zhixin Tian</t>
+          <t>Yuanyuan Qu, Hailiang Zhang, Dingwei Ye</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
@@ -3508,12 +3533,12 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Strided Self-Supervised Low-Dose CT Denoising for Lung Nodule Classification</t>
+          <t>N-Glycoproteomics Study of Putative N-Glycoprotein Biomarkers of Drug Resistance in MCF-7/ADR Cells</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-021-00025-y</t>
+          <t>http://link.springer.com/article/10.1007/s43657-021-00029-8</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3531,21 +3556,21 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>2021-10-26</t>
+          <t>2021-10-28</t>
         </is>
       </c>
       <c r="G56">
-        <v>1084</v>
+        <v>1206</v>
       </c>
       <c r="H56">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I56">
         <v>0</v>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>Hongming Shan</t>
+          <t>Yun Chen, Zhixin Tian</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
@@ -3567,12 +3592,12 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Pseudotime Ordering Single-Cell Transcriptomic of β Cells Pancreatic Islets in Health and Type 2 Diabetes</t>
+          <t>Strided Self-Supervised Low-Dose CT Denoising for Lung Nodule Classification</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-021-00024-z</t>
+          <t>http://link.springer.com/article/10.1007/s43657-021-00025-y</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3590,21 +3615,21 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>2021-10-19</t>
+          <t>2021-10-26</t>
         </is>
       </c>
       <c r="G57">
-        <v>1028</v>
+        <v>1089</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I57">
         <v>0</v>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>Xingxing Kong, Tiemin Liu</t>
+          <t>Hongming Shan</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
@@ -3614,7 +3639,7 @@
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="M57" t="inlineStr">
@@ -3626,12 +3651,12 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Causal Relationship Between Complement C3, C4, and Nonalcoholic Fatty Liver Disease: Bidirectional Mendelian Randomization Analysis</t>
+          <t>Pseudotime Ordering Single-Cell Transcriptomic of β Cells Pancreatic Islets in Health and Type 2 Diabetes</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-021-00023-0</t>
+          <t>http://link.springer.com/article/10.1007/s43657-021-00024-z</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3644,26 +3669,26 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>2021-09</t>
+          <t>2021-10</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>2021-09-23</t>
+          <t>2021-10-19</t>
         </is>
       </c>
       <c r="G58">
-        <v>828</v>
+        <v>1032</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58">
         <v>0</v>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>Xiaobo Yang</t>
+          <t>Xingxing Kong, Tiemin Liu</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
@@ -3685,17 +3710,17 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Origin and Spread of the ALDH2 Glu504Lys Allele</t>
+          <t>Causal Relationship Between Complement C3, C4, and Nonalcoholic Fatty Liver Disease: Bidirectional Mendelian Randomization Analysis</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-021-00017-y</t>
+          <t>http://link.springer.com/article/10.1007/s43657-021-00023-0</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="D59">
@@ -3708,21 +3733,21 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>2021-09-20</t>
+          <t>2021-09-23</t>
         </is>
       </c>
       <c r="G59">
-        <v>1526</v>
+        <v>828</v>
       </c>
       <c r="H59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I59">
         <v>0</v>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>Aijun Sun</t>
+          <t>Xiaobo Yang</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
@@ -3744,12 +3769,12 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Phenotypes of Cardiovascular Diseases: Current Status and Future Perspectives</t>
+          <t>Origin and Spread of the ALDH2 Glu504Lys Allele</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-021-00022-1</t>
+          <t>http://link.springer.com/article/10.1007/s43657-021-00017-y</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3762,26 +3787,26 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>2021-08</t>
+          <t>2021-09</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>2021-08-26</t>
+          <t>2021-09-20</t>
         </is>
       </c>
       <c r="G60">
-        <v>1074</v>
+        <v>1526</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I60">
         <v>0</v>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>Jiangping Song</t>
+          <t>Aijun Sun</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
@@ -3803,17 +3828,17 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Prediction of Metabolic Disorders Using NMR-Based Metabolomics: The Shanghai Changfeng Study</t>
+          <t>Phenotypes of Cardiovascular Diseases: Current Status and Future Perspectives</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-021-00021-2</t>
+          <t>http://link.springer.com/article/10.1007/s43657-021-00022-1</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="D61">
@@ -3826,21 +3851,21 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>2021-08-24</t>
+          <t>2021-08-26</t>
         </is>
       </c>
       <c r="G61">
-        <v>1051</v>
+        <v>1077</v>
       </c>
       <c r="H61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I61">
         <v>0</v>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>Ming-feng Xia, Hui-ru Tang, Xin Gao</t>
+          <t>Jiangping Song</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
@@ -3850,7 +3875,7 @@
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="M61" t="inlineStr">
@@ -3862,17 +3887,17 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Computational Methods for Prediction of Human Protein-Phenotype Associations: A Review</t>
+          <t>Prediction of Metabolic Disorders Using NMR-Based Metabolomics: The Shanghai Changfeng Study</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-021-00019-w</t>
+          <t>http://link.springer.com/article/10.1007/s43657-021-00021-2</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="D62">
@@ -3885,21 +3910,21 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>2021-08-06</t>
+          <t>2021-08-24</t>
         </is>
       </c>
       <c r="G62">
-        <v>1414</v>
+        <v>1055</v>
       </c>
       <c r="H62">
         <v>1</v>
       </c>
       <c r="I62">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>Shanfeng Zhu</t>
+          <t>Ming-feng Xia, Hui-ru Tang, Xin Gao</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
@@ -3921,12 +3946,12 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Recommendation for Cardiac Magnetic Resonance Imaging-Based Phenotypic Study: Imaging Part</t>
+          <t>Computational Methods for Prediction of Human Protein-Phenotype Associations: A Review</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-021-00018-x</t>
+          <t>http://link.springer.com/article/10.1007/s43657-021-00019-w</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3939,26 +3964,26 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>2021-07</t>
+          <t>2021-08</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>2021-07-28</t>
+          <t>2021-08-06</t>
         </is>
       </c>
       <c r="G63">
-        <v>1984</v>
+        <v>1417</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I63">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>Chengyan Wang, He Wang</t>
+          <t>Shanfeng Zhu</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
@@ -3980,12 +4005,12 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Molecular Phenomic Approaches to Deconvolving the Systemic Effects of SARS-CoV-2 Infection and Post-acute COVID-19 Syndrome</t>
+          <t>Recommendation for Cardiac Magnetic Resonance Imaging-Based Phenotypic Study: Imaging Part</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-021-00020-3</t>
+          <t>http://link.springer.com/article/10.1007/s43657-021-00018-x</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -4003,21 +4028,21 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>2021-07-22</t>
+          <t>2021-07-28</t>
         </is>
       </c>
       <c r="G64">
-        <v>2533</v>
+        <v>1989</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>Jeremy K. Nicholson</t>
+          <t>Chengyan Wang, He Wang</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
@@ -4039,17 +4064,17 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Genetic Architecture of Childhood Kidney and Urological Diseases in China</t>
+          <t>Molecular Phenomic Approaches to Deconvolving the Systemic Effects of SARS-CoV-2 Infection and Post-acute COVID-19 Syndrome</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-021-00014-1</t>
+          <t>http://link.springer.com/article/10.1007/s43657-021-00020-3</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="D65">
@@ -4062,21 +4087,21 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>2021-07-15</t>
+          <t>2021-07-22</t>
         </is>
       </c>
       <c r="G65">
-        <v>1364</v>
+        <v>2533</v>
       </c>
       <c r="H65">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I65">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>Jia Rao, Hong Xu</t>
+          <t>Jeremy K. Nicholson</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
@@ -4086,7 +4111,7 @@
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="M65" t="inlineStr">
@@ -4098,17 +4123,17 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Defense of COVID-19 by Human Organoids</t>
+          <t>Genetic Architecture of Childhood Kidney and Urological Diseases in China</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-021-00015-0</t>
+          <t>http://link.springer.com/article/10.1007/s43657-021-00014-1</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="D66">
@@ -4121,21 +4146,21 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>2021-07-14</t>
+          <t>2021-07-15</t>
         </is>
       </c>
       <c r="G66">
-        <v>2782</v>
+        <v>1364</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I66">
         <v>0</v>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>Xinhua Lin, Bing Zhao</t>
+          <t>Jia Rao, Hong Xu</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
@@ -4157,17 +4182,17 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Random Penetrance of Mutations Among Individuals: A New Type of Genetic Drift in Molecular Evolution</t>
+          <t>Defense of COVID-19 by Human Organoids</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-021-00013-2</t>
+          <t>http://link.springer.com/article/10.1007/s43657-021-00015-0</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="D67">
@@ -4175,26 +4200,26 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>2021-06</t>
+          <t>2021-07</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>2021-06-17</t>
+          <t>2021-07-14</t>
         </is>
       </c>
       <c r="G67">
-        <v>883</v>
+        <v>2789</v>
       </c>
       <c r="H67">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I67">
         <v>0</v>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>Xun Gu</t>
+          <t>Xinhua Lin, Bing Zhao</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
@@ -4216,17 +4241,17 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Molecular Determinants of Antibiotic Resistance in the Costa Rican Pseudomonas aeruginosa AG1 by a Multi-omics Approach: A Review of 10 Years of Study</t>
+          <t>Random Penetrance of Mutations Among Individuals: A New Type of Genetic Drift in Molecular Evolution</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-021-00016-z</t>
+          <t>http://link.springer.com/article/10.1007/s43657-021-00013-2</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="D68">
@@ -4243,17 +4268,17 @@
         </is>
       </c>
       <c r="G68">
-        <v>2412</v>
+        <v>886</v>
       </c>
       <c r="H68">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I68">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>Jose Arturo Molina-Mora</t>
+          <t>Xun Gu</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
@@ -4275,17 +4300,17 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Distribution Atlas of COVID-19 Pneumonia on Computed Tomography: A Deep Learning Based Description</t>
+          <t>Molecular Determinants of Antibiotic Resistance in the Costa Rican Pseudomonas aeruginosa AG1 by a Multi-omics Approach: A Review of 10 Years of Study</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-021-00011-4</t>
+          <t>http://link.springer.com/article/10.1007/s43657-021-00016-z</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="D69">
@@ -4293,26 +4318,26 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>2021-05</t>
+          <t>2021-06</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>2021-05-11</t>
+          <t>2021-06-17</t>
         </is>
       </c>
       <c r="G69">
-        <v>1660</v>
+        <v>2412</v>
       </c>
       <c r="H69">
+        <v>3</v>
+      </c>
+      <c r="I69">
         <v>2</v>
       </c>
-      <c r="I69">
-        <v>1</v>
-      </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>Shenghong Ju</t>
+          <t>Jose Arturo Molina-Mora</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
@@ -4322,7 +4347,7 @@
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="M69" t="inlineStr">
@@ -4334,12 +4359,12 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Comparison of Metabolic Profiling of Arabidopsis Inflorescences Between Landsberg erecta and Columbia, and Meiosis-Defective Mutants by 1H-NMR Spectroscopy</t>
+          <t>Distribution Atlas of COVID-19 Pneumonia on Computed Tomography: A Deep Learning Based Description</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-021-00012-3</t>
+          <t>http://link.springer.com/article/10.1007/s43657-021-00011-4</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -4361,17 +4386,17 @@
         </is>
       </c>
       <c r="G70">
-        <v>1395</v>
+        <v>1664</v>
       </c>
       <c r="H70">
+        <v>2</v>
+      </c>
+      <c r="I70">
         <v>1</v>
       </c>
-      <c r="I70">
-        <v>0</v>
-      </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>Limin Zhang, Yingxiang Wang</t>
+          <t>Shenghong Ju</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
@@ -4393,17 +4418,17 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>High-Throughput Phenotyping: A Platform to Accelerate Crop Improvement</t>
+          <t>Comparison of Metabolic Profiling of Arabidopsis Inflorescences Between Landsberg erecta and Columbia, and Meiosis-Defective Mutants by 1H-NMR Spectroscopy</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-020-00007-6</t>
+          <t>http://link.springer.com/article/10.1007/s43657-021-00012-3</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="D71">
@@ -4420,17 +4445,17 @@
         </is>
       </c>
       <c r="G71">
-        <v>3280</v>
+        <v>1398</v>
       </c>
       <c r="H71">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="I71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>Neelam R. Yadav</t>
+          <t>Limin Zhang, Yingxiang Wang</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
@@ -4452,17 +4477,17 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Effect of Light on Cognitive Function During a Stroop Task Using Functional Near-Infrared Spectroscopy</t>
+          <t>High-Throughput Phenotyping: A Platform to Accelerate Crop Improvement</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-021-00010-5</t>
+          <t>http://link.springer.com/article/10.1007/s43657-020-00007-6</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Article</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="D72">
@@ -4470,26 +4495,26 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>2021-04</t>
+          <t>2021-05</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>2021-04-19</t>
+          <t>2021-05-11</t>
         </is>
       </c>
       <c r="G72">
-        <v>1945</v>
+        <v>3280</v>
       </c>
       <c r="H72">
+        <v>8</v>
+      </c>
+      <c r="I72">
         <v>1</v>
       </c>
-      <c r="I72">
-        <v>2</v>
-      </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>Wei Chen</t>
+          <t>Neelam R. Yadav</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
@@ -4511,12 +4536,12 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Using Composite Phenotypes to Reveal Hidden Physiological Heterogeneity in High-Altitude Acclimatization in a Chinese Han Longitudinal Cohort</t>
+          <t>Effect of Light on Cognitive Function During a Stroop Task Using Functional Near-Infrared Spectroscopy</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-020-00005-8</t>
+          <t>http://link.springer.com/article/10.1007/s43657-021-00010-5</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -4529,26 +4554,26 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>2021-02</t>
+          <t>2021-04</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>2021-02-22</t>
+          <t>2021-04-19</t>
         </is>
       </c>
       <c r="G73">
-        <v>4173</v>
+        <v>1950</v>
       </c>
       <c r="H73">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I73">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>Jiucun Wang, Li Jin</t>
+          <t>Wei Chen</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
@@ -4558,7 +4583,7 @@
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="M73" t="inlineStr">
@@ -4570,12 +4595,12 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>The Ultrafast and Accurate Mapping Algorithm FANSe3: Mapping a Human Whole-Genome Sequencing Dataset Within 30 Minutes</t>
+          <t>Using Composite Phenotypes to Reveal Hidden Physiological Heterogeneity in High-Altitude Acclimatization in a Chinese Han Longitudinal Cohort</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-020-00008-5</t>
+          <t>http://link.springer.com/article/10.1007/s43657-020-00005-8</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -4597,17 +4622,17 @@
         </is>
       </c>
       <c r="G74">
-        <v>2980</v>
+        <v>4181</v>
       </c>
       <c r="H74">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I74">
         <v>7</v>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>Gong Zhang, Jingjie Jin</t>
+          <t>Jiucun Wang, Li Jin</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
@@ -4629,17 +4654,17 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>In Situ Saturating Mutagenesis Screening Identifies a Functional Genomic Locus that Regulates Ucp1 Expression</t>
+          <t>The Ultrafast and Accurate Mapping Algorithm FANSe3: Mapping a Human Whole-Genome Sequencing Dataset Within 30 Minutes</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-020-00006-7</t>
+          <t>http://link.springer.com/article/10.1007/s43657-020-00008-5</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Correspondence</t>
+          <t>Article</t>
         </is>
       </c>
       <c r="D75">
@@ -4656,17 +4681,17 @@
         </is>
       </c>
       <c r="G75">
-        <v>1956</v>
+        <v>2983</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I75">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>Qiurong Ding</t>
+          <t>Gong Zhang, Jingjie Jin</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
@@ -4688,17 +4713,17 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Welcome to the Phenomics Journal</t>
+          <t>In Situ Saturating Mutagenesis Screening Identifies a Functional Genomic Locus that Regulates Ucp1 Expression</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>http://link.springer.com/article/10.1007/s43657-020-00009-4</t>
+          <t>http://link.springer.com/article/10.1007/s43657-020-00006-7</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Editorial</t>
+          <t>Correspondence</t>
         </is>
       </c>
       <c r="D76">
@@ -4706,39 +4731,98 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>2021-01</t>
+          <t>2021-02</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>2021-01-11</t>
+          <t>2021-02-22</t>
         </is>
       </c>
       <c r="G76">
-        <v>3917</v>
+        <v>1956</v>
       </c>
       <c r="H76">
         <v>2</v>
       </c>
       <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>Qiurong Ding</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>2022-12-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Welcome to the Phenomics Journal</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>http://link.springer.com/article/10.1007/s43657-020-00009-4</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Editorial</t>
+        </is>
+      </c>
+      <c r="D77">
+        <v>2021</v>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>2021-01</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>2021-01-11</t>
+        </is>
+      </c>
+      <c r="G77">
+        <v>3917</v>
+      </c>
+      <c r="H77">
+        <v>2</v>
+      </c>
+      <c r="I77">
         <v>5</v>
       </c>
-      <c r="J76" t="inlineStr">
+      <c r="J77" t="inlineStr">
         <is>
           <t>Li Jin</t>
         </is>
       </c>
-      <c r="K76" t="inlineStr">
+      <c r="K77" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="L76" t="inlineStr">
+      <c r="L77" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="M76" t="inlineStr">
+      <c r="M77" t="inlineStr">
         <is>
           <t>2022-12-05</t>
         </is>
